--- a/biology/Botanique/Shakuhachi/Shakuhachi.xlsx
+++ b/biology/Botanique/Shakuhachi/Shakuhachi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le shakuhachi (尺八?) ou en chinois chiba (en) 尺八, chǐbā est une flûte japonaise, d'origine chinoise, à cinq trous, droite, en bambou munie d'une embouchure libre de type quena mais qui, à la différence de cette dernière, est le résultat d'une taille oblique de la partie supérieure de l'instrument. Contrairement à la quena, elle est conçue sur une échelle pentatonique propre aux musiques traditionnelles japonaises et chinoises et non sur une échelle chromatique (musique occidentale). Elle évoque ainsi la nature, et on l'emploie surtout en musique traditionnelle.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique de l'instrument</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'époque préhistorique du Japon les premières représentations de musiciens jouant d'une flûte apparaissent sous la forme de figurines funéraires Haniwa.
 En 589 une délégation diplomatique est envoyée en Chine signant le début d'une influence culturelle qui verra l'introduction d'une trentaine d'instruments Chinois dont la flûte shakuhachi. Cette formation aux instruments nombreux s'appelle Gagaku (雅乐?) en japonais, (kyūjitai : 雅樂) chinois chinois simplifié : 雅乐 ; chinois traditionnel : 雅樂 ; pinyin : yǎyuè accompagne des cérémonies bouddhistes. Cette flûte, alors connue sous le nom de Gagaku Shakuhachi, fut utilisée lors des représentations de musique de cour jusqu'au IXe siècle. Elle en fut ensuite retirée après le déplacement de la cour de Nara à Kyoto et la réforme de la musique qui s'ensuivit (époque de Heian).
@@ -548,14 +562,16 @@
           <t>Facture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme shakuhachi signifie « 1,8 pied », désignant ainsi la longueur de l’instrument. Il est composé de deux hanzi (ou kanji en japonais) :
 尺, shaku (du chinois 尺, chǐ). Le chi est une unité de mesure impériale chinoise utilisée en Extrême orient, équivalent autrefois à 20 cm, puis ayant augmenté jusqu'à 30,3 cm, soit un pied.
 八, hachi (du chinois 八, bā) désigne le chiffre huit, ici les 8 10e de chǐ, soit huit pouces.
 L’ensemble se lit comme « un pied et huit dixièmes », soit environ 55 cm, ce qui est la longueur la plus répandue pour l'instrument. En pratique, on trouve cependant des flûtes qui vont de 1,3 shaku à 3,3 shaku (près d’un mètre), du plus aigu au plus grave.
 Le shakuhachi est habituellement taillé dans une tige de bambou madaké (Phyllostachys reticulata). Les shakuhachi de taille moyenne (proche des 1,8 shaku) possèdent en général 7 nœuds, les grands instruments en comptent parfois plus.
-Le compositeur japonais Akira Tamba explique : "on prend la racine et la partie inférieure d'un  bambou mâle que l'on fait sécher dehors, à l'ombre, jusqu'à ce qu'il ait perdu toute son huile. Puis, on perce sept nœuds à l'aide d'une drille"[1].
+Le compositeur japonais Akira Tamba explique : "on prend la racine et la partie inférieure d'un  bambou mâle que l'on fait sécher dehors, à l'ombre, jusqu'à ce qu'il ait perdu toute son huile. Puis, on perce sept nœuds à l'aide d'une drille".
 L’instrument présente cinq trous, dont un à l’arrière, accordés selon le système pentatonique, sans demi-tons. L’instrument le plus répandu (1,8 shaku ou 55 cm) donne une gamme pentatonique mineure en ré : Ré, Fa, Sol, La, Do, ré. Toutefois, l’instrumentiste peut jouer sur la puissance et la direction de son souffle ainsi que sur le degré d’obturation des trous pour modifier le son d’un ton complet, parfois plus.
 Certains facteurs modernes proposent aujourd’hui des shakuhachi à 7 trous permettant de jouer plus facilement un mode de Mi(1/2 ton, ton, ton, ton, 1/2, ton, ton) soit pour Ré: Ré, Mib, Fa, Sol, La, Si♭, Do, ré. Certains modèles expérimentaux sont chromatiques.
 Pour les ji-ari[Quoi ?],la perce est recouverte d’une couche de "ji" (pâte) , permettant un contrôle très strict des cotes intérieures[pas clair], un accordage très précis puis recouverte de fines couches d'"urushi" laque très dure protégeant le bambou contre l'humidité contenue dans le souffle. Une autre famille importante d'instruments sont dépourvues de cette pâte : les ji-nashi.
@@ -588,7 +604,9 @@
           <t>Jeu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musicien est généralement agenouillé, assis sur ses talons. Contrairement au joueur de flûte à bec, qui souffle dans un bec rigide conduisant ainsi l’air dans un sifflet, le joueur de shakuhachi souffle dans son instrument un peu à la manière dont on soufflerait dans le goulot d’une bouteille vide. L’embouchure du shakuhachi présente un bord biseauté (flute à encoche), permettant au joueur de contrôler très finement la hauteur du son, en un mouvement de fermeture ou d'ouverture de l'orifice supérieur.
 Il existe de nombreuses écoles pour le style de jeu, les plus connues en occident étant les écoles kinko et tozan.
@@ -622,7 +640,9 @@
           <t>Shakuhachi synthétisé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le son du shakuhachi est également présent de temps en temps dans la musique électronique, la pop et le rock, particulièrement à partir des années 1980. Voici une liste de morceaux où le son d'un shakuhachi émulé ou échantillonné peut être entendu :
 </t>
